--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_5_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_5_square_10_.xlsx
@@ -581,53 +581,53 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.32000000000036</v>
+        <v>24.35000000000037</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>4.272460163434744e-11</v>
+        <v>1.854072451124011e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>4.272460163434744e-11</v>
+        <v>1.854072451124011e-14</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>52.0590098514778</v>
+        <v>57.31814316030142</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[39.88498168234969, 64.23303802060592]</t>
+          <t>[46.451441004612235, 68.1848453159906]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>4.499289829595909e-11</v>
+        <v>7.549516567451064e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>4.499289829595909e-11</v>
+        <v>7.549516567451064e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>1.540921321580579</v>
+        <v>1.62897396852804</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.2641844311742716, 1.8176582119868865]</t>
+          <t>[1.427710775505271, 1.8302371615508095]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.265654248072678e-14</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.265654248072678e-14</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>55.98936136149246</v>
+        <v>56.90127256546484</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[47.904763001484966, 64.07395972149995]</t>
+          <t>[49.91643101051884, 63.886114120410845]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>18.35563563563591</v>
+        <v>18.03703703703731</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.28448448448475</v>
+        <v>17.25705705705732</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.42678678678707</v>
+        <v>18.8170170170173</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.32000000000036</v>
+        <v>24.35000000000037</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.787694269341557e-09</v>
+        <v>3.774758283725532e-15</v>
       </c>
       <c r="I3" t="n">
-        <v>3.787694269341557e-09</v>
+        <v>3.774758283725532e-15</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>53.87262706967343</v>
+        <v>59.96114032867052</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[38.526197517469726, 69.21905662187713]</t>
+          <t>[49.57473520772619, 70.34754544961486]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>8.014109820209114e-09</v>
+        <v>3.774758283725532e-15</v>
       </c>
       <c r="O3" t="n">
-        <v>8.014109820209114e-09</v>
+        <v>3.774758283725532e-15</v>
       </c>
       <c r="P3" t="n">
-        <v>1.515763422452733</v>
+        <v>1.566079220708425</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.1887107337907326, 1.8428161111147334]</t>
+          <t>[1.364816027685655, 1.7673424137311953]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>4.296341060694431e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>4.296341060694431e-12</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>56.88566616289113</v>
+        <v>52.97126274458187</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[47.045884770011455, 66.7254475557708]</t>
+          <t>[46.00120493727292, 59.941320551890826]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>18.45301301301329</v>
+        <v>18.28078078078106</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.18710710710737</v>
+        <v>17.50080080080106</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.71891891891921</v>
+        <v>19.06076076076105</v>
       </c>
     </row>
     <row r="4">
@@ -753,53 +753,53 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.32000000000036</v>
+        <v>24.35000000000037</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.272937476594961e-13</v>
+        <v>1.65752966907462e-11</v>
       </c>
       <c r="I4" t="n">
-        <v>3.272937476594961e-13</v>
+        <v>1.65752966907462e-11</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>65.13116890822873</v>
+        <v>54.70305551512543</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[50.140058695239986, 80.12227912121747]</t>
+          <t>[40.69917229057732, 68.70693873967353]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.860889303235581e-11</v>
+        <v>5.374944933578263e-10</v>
       </c>
       <c r="O4" t="n">
-        <v>2.860889303235581e-11</v>
+        <v>5.374944933578263e-10</v>
       </c>
       <c r="P4" t="n">
-        <v>1.352237078121733</v>
+        <v>1.364816027685656</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.1132370364071944, 1.5912371198362711]</t>
+          <t>[1.0880791372793466, 1.641552918091965]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>7.549516567451064e-15</v>
+        <v>6.412648190234904e-13</v>
       </c>
       <c r="S4" t="n">
-        <v>7.549516567451064e-15</v>
+        <v>6.412648190234904e-13</v>
       </c>
       <c r="T4" t="n">
-        <v>55.87955993505021</v>
+        <v>53.05871831138064</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[47.244982194388975, 64.51413767571145]</t>
+          <t>[44.839199326934576, 61.27823729582671]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>19.08596596596625</v>
+        <v>19.06076076076105</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.16088088088116</v>
+        <v>17.98828828828855</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.01105105105135</v>
+        <v>20.13323323323354</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.32000000000036</v>
+        <v>24.35000000000037</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>7.641234311961398e-10</v>
+        <v>1.660116488721997e-12</v>
       </c>
       <c r="I5" t="n">
-        <v>7.641234311961398e-10</v>
+        <v>1.660116488721997e-12</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>53.5400545404722</v>
+        <v>58.71592486273191</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[38.57426533733492, 68.50584374360947]</t>
+          <t>[44.550547684628896, 72.88130204083492]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>5.057241514450084e-09</v>
+        <v>1.077953282191402e-10</v>
       </c>
       <c r="O5" t="n">
-        <v>5.057241514450084e-09</v>
+        <v>1.077953282191402e-10</v>
       </c>
       <c r="P5" t="n">
-        <v>1.352237078121733</v>
+        <v>1.33965812855781</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.0126054398958102, 1.6918687163476553]</t>
+          <t>[1.0880791372793466, 1.591237119836273]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.233244783018563e-10</v>
+        <v>5.551115123125783e-14</v>
       </c>
       <c r="S5" t="n">
-        <v>3.233244783018563e-10</v>
+        <v>5.551115123125783e-14</v>
       </c>
       <c r="T5" t="n">
-        <v>54.72991470946641</v>
+        <v>54.51563341726261</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[45.53916700871874, 63.920662410214085]</t>
+          <t>[46.316849287754714, 62.71441754677051]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>19.08596596596625</v>
+        <v>19.15825825825855</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.77137137137164</v>
+        <v>18.18328328328355</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.40056056056086</v>
+        <v>20.13323323323354</v>
       </c>
     </row>
     <row r="6">
@@ -925,53 +925,53 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.32000000000036</v>
+        <v>24.35000000000037</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.389333093015921e-12</v>
+        <v>1.416995631942086e-09</v>
       </c>
       <c r="I6" t="n">
-        <v>1.389333093015921e-12</v>
+        <v>1.416995631942086e-09</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>56.15644269137621</v>
+        <v>50.42094827997696</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[42.638445755862534, 69.67443962688989]</t>
+          <t>[35.36969091225029, 65.47220564770363]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1.013884531886333e-10</v>
+        <v>2.418632849554569e-08</v>
       </c>
       <c r="O6" t="n">
-        <v>1.013884531886333e-10</v>
+        <v>2.418632849554569e-08</v>
       </c>
       <c r="P6" t="n">
-        <v>1.239026532046426</v>
+        <v>1.327079178993886</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.9748685912040402, 1.5031844728888109]</t>
+          <t>[1.0000264903318863, 1.6541318676558854]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.995159675833747e-12</v>
+        <v>1.935600568714335e-10</v>
       </c>
       <c r="S6" t="n">
-        <v>2.995159675833747e-12</v>
+        <v>1.935600568714335e-10</v>
       </c>
       <c r="T6" t="n">
-        <v>52.73443378605059</v>
+        <v>59.08460390445401</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[44.95019590558584, 60.518671666515345]</t>
+          <t>[50.218288537111874, 67.95091927179615]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>19.52416416416445</v>
+        <v>19.2070070070073</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.50170170170198</v>
+        <v>17.93953953953982</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.54662662662693</v>
+        <v>20.47447447447478</v>
       </c>
     </row>
     <row r="7">
@@ -1011,53 +1011,53 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.32000000000036</v>
+        <v>24.35000000000037</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>9.992007221626409e-16</v>
+        <v>4.071187831300449e-13</v>
       </c>
       <c r="I7" t="n">
-        <v>9.992007221626409e-16</v>
+        <v>4.071187831300449e-13</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>60.08385123079184</v>
+        <v>55.95525406368167</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[48.23671187110597, 71.9309905904777]</t>
+          <t>[42.153766167016656, 69.75674196034669]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2.662314813051125e-13</v>
+        <v>1.98033811571463e-10</v>
       </c>
       <c r="O7" t="n">
-        <v>2.662314813051125e-13</v>
+        <v>1.98033811571463e-10</v>
       </c>
       <c r="P7" t="n">
-        <v>1.264184431174272</v>
+        <v>1.075500187715424</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1.0503422885875784, 1.4780265737609648]</t>
+          <t>[0.8239211964369622, 1.3270791789938867]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>4.536304665236912e-11</v>
       </c>
       <c r="S7" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>4.536304665236912e-11</v>
       </c>
       <c r="T7" t="n">
-        <v>55.21782656814766</v>
+        <v>52.33873952816967</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[48.50734625825012, 61.9283068780452]</t>
+          <t>[44.88599439667508, 59.791484659664256]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>19.42678678678708</v>
+        <v>20.18198198198229</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.59907907907935</v>
+        <v>19.2070070070073</v>
       </c>
       <c r="Z7" t="n">
-        <v>20.2544944944948</v>
+        <v>21.15695695695728</v>
       </c>
     </row>
     <row r="8">
@@ -1097,53 +1097,53 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.32000000000036</v>
+        <v>24.35000000000037</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>6.550315845288424e-15</v>
+        <v>2.490230244234226e-13</v>
       </c>
       <c r="I8" t="n">
-        <v>6.550315845288424e-15</v>
+        <v>2.490230244234226e-13</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>56.07657411222765</v>
+        <v>62.91529211704883</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[43.936862660434585, 68.21628556402072]</t>
+          <t>[47.55658398943875, 78.27400024465891]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>4.745093207247919e-12</v>
+        <v>1.492854728724069e-10</v>
       </c>
       <c r="O8" t="n">
-        <v>4.745093207247919e-12</v>
+        <v>1.492854728724069e-10</v>
       </c>
       <c r="P8" t="n">
-        <v>1.150973885098963</v>
+        <v>1.113237036407194</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.9119738433844251, 1.3899739268135018]</t>
+          <t>[0.8490790955648082, 1.3773949772495788]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.340705324537339e-12</v>
+        <v>6.790967788106173e-11</v>
       </c>
       <c r="S8" t="n">
-        <v>1.340705324537339e-12</v>
+        <v>6.790967788106173e-11</v>
       </c>
       <c r="T8" t="n">
-        <v>49.33661007754188</v>
+        <v>52.60186634186735</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[42.73502387564104, 55.938196279442714]</t>
+          <t>[44.34469060920281, 60.85904207453189]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>19.86498498498528</v>
+        <v>20.03573573573604</v>
       </c>
       <c r="Y8" t="n">
-        <v>18.93989989990018</v>
+        <v>19.0120120120123</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.79007007007038</v>
+        <v>21.05945945945978</v>
       </c>
     </row>
     <row r="9">
@@ -1183,53 +1183,53 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.32000000000036</v>
+        <v>24.35000000000037</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.532107773982716e-12</v>
+        <v>2.853273173286652e-14</v>
       </c>
       <c r="I9" t="n">
-        <v>1.532107773982716e-12</v>
+        <v>2.853273173286652e-14</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>60.16126545583639</v>
+        <v>64.74499434225147</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[43.71226005503458, 76.6102708566382]</t>
+          <t>[49.90610731901762, 79.58388136548533]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2.924718467411935e-09</v>
+        <v>2.531330700605849e-11</v>
       </c>
       <c r="O9" t="n">
-        <v>2.924718467411935e-09</v>
+        <v>2.531330700605849e-11</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9371317425122703</v>
+        <v>1.012605439895808</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.6729738016698859, 1.2012896833546547]</t>
+          <t>[0.7610264486173461, 1.2641844311742707]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>6.207906855237866e-09</v>
+        <v>2.411515431788303e-10</v>
       </c>
       <c r="S9" t="n">
-        <v>6.207906855237866e-09</v>
+        <v>2.411515431788303e-10</v>
       </c>
       <c r="T9" t="n">
-        <v>54.60012525414444</v>
+        <v>57.46240537551451</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[46.26291969131995, 62.937330816968924]</t>
+          <t>[49.52055951012285, 65.40425124090616]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>20.692692692693</v>
+        <v>20.42572572572604</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.67023023023053</v>
+        <v>19.45075075075104</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.71515515515548</v>
+        <v>21.40070070070103</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.32000000000036</v>
+        <v>24.35000000000037</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.549482847058471e-11</v>
+        <v>1.001750349338693e-09</v>
       </c>
       <c r="I10" t="n">
-        <v>2.549482847058471e-11</v>
+        <v>1.001750349338693e-09</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>55.22504859286263</v>
+        <v>52.02124014658446</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[38.76403915758223, 71.68605802814302]</t>
+          <t>[34.84608560974277, 69.19639468342615]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2.337490578874224e-08</v>
+        <v>2.214643235465275e-07</v>
       </c>
       <c r="O10" t="n">
-        <v>2.337490578874224e-08</v>
+        <v>2.214643235465275e-07</v>
       </c>
       <c r="P10" t="n">
-        <v>0.8993948938205021</v>
+        <v>0.8993948938205003</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.6100790538502707, 1.1887107337907334]</t>
+          <t>[0.5597632555945768, 1.2390265320464238]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.277262666743439e-07</v>
+        <v>3.006464076804605e-06</v>
       </c>
       <c r="S10" t="n">
-        <v>1.277262666743439e-07</v>
+        <v>3.006464076804605e-06</v>
       </c>
       <c r="T10" t="n">
-        <v>54.24599180583549</v>
+        <v>55.03568892812529</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[45.87054933178324, 62.62143427988774]</t>
+          <t>[46.05641908400794, 64.01495877224264]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X10" t="n">
-        <v>20.83875875875907</v>
+        <v>20.86446446446478</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.71891891891921</v>
+        <v>19.54824824824854</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.95859859859893</v>
+        <v>22.18068068068102</v>
       </c>
     </row>
     <row r="11">
@@ -1355,39 +1355,39 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.27000000000051</v>
+        <v>25.24000000000051</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>4.363176486776865e-14</v>
+        <v>3.219646771412954e-15</v>
       </c>
       <c r="I11" t="n">
-        <v>4.363176486776865e-14</v>
+        <v>3.219646771412954e-15</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>56.63685925211692</v>
+        <v>64.97666637078201</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[43.329148756587955, 69.94456974764589]</t>
+          <t>[50.897853198193005, 79.05547954337102]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>5.147926529502911e-11</v>
+        <v>4.871658632055187e-12</v>
       </c>
       <c r="O11" t="n">
-        <v>5.147926529502911e-11</v>
+        <v>4.871658632055187e-12</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5975001042863468</v>
+        <v>0.5975001042863477</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.37107901213573147, 0.8239211964369622]</t>
+          <t>[0.37107901213573236, 0.823921196436963]</t>
         </is>
       </c>
       <c r="R11" t="n">
@@ -1397,11 +1397,11 @@
         <v>3.201520661022528e-06</v>
       </c>
       <c r="T11" t="n">
-        <v>51.17906280669488</v>
+        <v>55.24937121167895</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[44.28271997297548, 58.07540564041428]</t>
+          <t>[47.913447251052474, 62.58529517230542]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1411,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>22.86694694694741</v>
+        <v>22.83979979980025</v>
       </c>
       <c r="Y11" t="n">
-        <v>21.95631631631677</v>
+        <v>21.93025025025069</v>
       </c>
       <c r="Z11" t="n">
-        <v>23.77757757757806</v>
+        <v>23.74934934934982</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.27000000000051</v>
+        <v>25.24000000000051</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.743615334921401e-10</v>
+        <v>1.326716514427062e-13</v>
       </c>
       <c r="I12" t="n">
-        <v>2.743615334921401e-10</v>
+        <v>1.326716514427062e-13</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>59.35486357497469</v>
+        <v>62.5652931275071</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[42.1041637060747, 76.60556344387467]</t>
+          <t>[48.759993812524044, 76.37059244249015]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1.294347140579077e-08</v>
+        <v>8.36841707041458e-12</v>
       </c>
       <c r="O12" t="n">
-        <v>1.294347140579077e-08</v>
+        <v>8.36841707041458e-12</v>
       </c>
       <c r="P12" t="n">
-        <v>0.4339737599553466</v>
+        <v>0.2830263651882694</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.11950002085726918, 0.748447499053424]</t>
+          <t>[0.05660527303765406, 0.5094474573388847]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.007918340583132677</v>
+        <v>0.01544312383558455</v>
       </c>
       <c r="S12" t="n">
-        <v>0.007918340583132677</v>
+        <v>0.01544312383558455</v>
       </c>
       <c r="T12" t="n">
-        <v>55.1180109492601</v>
+        <v>56.2367699181463</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[45.57403840346629, 64.6619834950539]</t>
+          <t>[48.41280224879546, 64.06073758749714]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.774758283725532e-15</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>3.774758283725532e-15</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>23.5246246246251</v>
+        <v>24.10306306306355</v>
       </c>
       <c r="Y12" t="n">
-        <v>22.25985985986031</v>
+        <v>23.19351351351398</v>
       </c>
       <c r="Z12" t="n">
-        <v>24.78938938938989</v>
+        <v>25.01261261261311</v>
       </c>
     </row>
     <row r="13">
@@ -1527,53 +1527,53 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.27000000000051</v>
+        <v>25.24000000000051</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>9.681144774731365e-14</v>
+        <v>1.748623468245114e-11</v>
       </c>
       <c r="I13" t="n">
-        <v>9.681144774731365e-14</v>
+        <v>1.748623468245114e-11</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>59.90716610851342</v>
+        <v>58.5879769389737</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[48.42588363642996, 71.38844858059687]</t>
+          <t>[44.95123067250698, 72.22472320544041]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1.072475441787901e-13</v>
+        <v>3.938183112950355e-11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.072475441787901e-13</v>
+        <v>3.938183112950355e-11</v>
       </c>
       <c r="P13" t="n">
-        <v>0.01886842434588498</v>
+        <v>0.1195000208572692</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.1823947686768843, 0.22013161736865428]</t>
+          <t>[-0.1320789704211922, 0.3710790121357306]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.8510812045480654</v>
+        <v>0.3438308888548971</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8510812045480654</v>
+        <v>0.3438308888548971</v>
       </c>
       <c r="T13" t="n">
-        <v>56.99114181237015</v>
+        <v>56.10721543082403</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[49.55855508960323, 64.42372853513706]</t>
+          <t>[47.549709895512756, 64.66472096613532]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1583,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>25.19411411411462</v>
+        <v>24.75995995996046</v>
       </c>
       <c r="Y13" t="n">
-        <v>24.38466466466516</v>
+        <v>23.74934934934983</v>
       </c>
       <c r="Z13" t="n">
-        <v>26.00356356356409</v>
+        <v>25.77057057057109</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>25.27000000000051</v>
+        <v>25.24000000000051</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>2.686739719592879e-13</v>
+        <v>8.464895451254506e-12</v>
       </c>
       <c r="I14" t="n">
-        <v>2.686739719592879e-13</v>
+        <v>8.464895451254506e-12</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>62.38375757281997</v>
+        <v>57.51833887067544</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[48.613146540322674, 76.15436860531727]</t>
+          <t>[43.5900910069538, 71.44658673439707]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>8.465450562766819e-12</v>
+        <v>1.19500853656973e-10</v>
       </c>
       <c r="O14" t="n">
-        <v>8.465450562766819e-12</v>
+        <v>1.19500853656973e-10</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.1886842434588463</v>
+        <v>-0.1509473947670772</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.4276842851733855, 0.05031579825569299]</t>
+          <t>[-0.4151053356094625, 0.11321054607530812]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.1188182318997746</v>
+        <v>0.2558456697330391</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1188182318997746</v>
+        <v>0.2558456697330391</v>
       </c>
       <c r="T14" t="n">
-        <v>59.96899123671194</v>
+        <v>52.27912025995274</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[51.92765603178766, 68.01032644163622]</t>
+          <t>[44.01960546527249, 60.53863505463299]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X14" t="n">
-        <v>0.7588588588588721</v>
+        <v>0.6063663663663803</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0.2023623623623704</v>
+        <v>-0.4547747747747832</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.720080080080114</v>
+        <v>1.667507507507544</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>25.27000000000051</v>
+        <v>25.24000000000051</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>3.200106846179551e-12</v>
+        <v>1.813765804214995e-10</v>
       </c>
       <c r="I15" t="n">
-        <v>3.200106846179551e-12</v>
+        <v>1.813765804214995e-10</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>56.71084769888064</v>
+        <v>54.05679022773585</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[41.23692854513206, 72.18476685262922]</t>
+          <t>[37.2179898144723, 70.89559064099939]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>2.778647090195818e-09</v>
+        <v>6.338710689668403e-08</v>
       </c>
       <c r="O15" t="n">
-        <v>2.778647090195818e-09</v>
+        <v>6.338710689668403e-08</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.5408948312486928</v>
+        <v>-0.5786316799404627</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.8176317216550011, -0.2641579408423844]</t>
+          <t>[-0.8931054190385401, -0.2641579408423853]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.0002839188429748507</v>
+        <v>0.0005745715763323389</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0002839188429748507</v>
+        <v>0.0005745715763323389</v>
       </c>
       <c r="T15" t="n">
-        <v>51.34169898655563</v>
+        <v>54.22427411018027</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[43.307857261954, 59.37554071115727]</t>
+          <t>[45.442560971786996, 63.005987248573554]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W15" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X15" t="n">
-        <v>2.175395395395441</v>
+        <v>2.324404404404454</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.062402402402424</v>
+        <v>1.061141141141166</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.288388388388457</v>
+        <v>3.587667667667743</v>
       </c>
     </row>
     <row r="16">
@@ -1785,53 +1785,53 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>25.27000000000051</v>
+        <v>25.24000000000051</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>6.811662345285185e-12</v>
+        <v>3.375077994860476e-14</v>
       </c>
       <c r="I16" t="n">
-        <v>6.811662345285185e-12</v>
+        <v>3.375077994860476e-14</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>50.56524237100048</v>
+        <v>55.50674563542155</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[35.77563808587621, 65.35484665612475]</t>
+          <t>[41.86197810513797, 69.15151316570513]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>1.503386926060557e-08</v>
+        <v>1.806277349913898e-10</v>
       </c>
       <c r="O16" t="n">
-        <v>1.503386926060557e-08</v>
+        <v>1.806277349913898e-10</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.8553685703467702</v>
+        <v>-0.9182633181663862</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-1.1321054607530785, -0.5786316799404618]</t>
+          <t>[-1.1572633598809254, -0.6792632764518469]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>1.443958488334118e-07</v>
+        <v>8.305416354659201e-10</v>
       </c>
       <c r="S16" t="n">
-        <v>1.443958488334118e-07</v>
+        <v>8.305416354659201e-10</v>
       </c>
       <c r="T16" t="n">
-        <v>50.26459692350987</v>
+        <v>53.96414714592181</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[42.80749886635391, 57.72169498066583]</t>
+          <t>[47.000618676311845, 60.92767561553178]</t>
         </is>
       </c>
       <c r="V16" t="n">
@@ -1841,13 +1841,13 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>3.440160160160229</v>
+        <v>3.688728728728805</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.327167167167212</v>
+        <v>2.728648648648703</v>
       </c>
       <c r="Z16" t="n">
-        <v>4.553153153153245</v>
+        <v>4.648808808808906</v>
       </c>
     </row>
     <row r="17">
@@ -1871,53 +1871,53 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>25.27000000000051</v>
+        <v>25.24000000000051</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>7.549516567451064e-15</v>
+        <v>1.303956942422246e-12</v>
       </c>
       <c r="I17" t="n">
-        <v>7.549516567451064e-15</v>
+        <v>1.303956942422246e-12</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>60.33926875495512</v>
+        <v>53.6165551237271</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[48.45210879002485, 72.22642871988539]</t>
+          <t>[40.32880235082099, 66.90430789663321]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.589040093425865e-13</v>
+        <v>2.254052500205717e-10</v>
       </c>
       <c r="O17" t="n">
-        <v>2.589040093425865e-13</v>
+        <v>2.254052500205717e-10</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.345947603339772</v>
+        <v>-1.308210754648002</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-1.559789745926465, -1.1321054607530785]</t>
+          <t>[-1.58494764505431, -1.0314738642416934]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>2.363442774822033e-12</v>
       </c>
       <c r="S17" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>2.363442774822033e-12</v>
       </c>
       <c r="T17" t="n">
-        <v>50.8087699679728</v>
+        <v>52.41423630475175</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[43.49686607468177, 58.12067386126383]</t>
+          <t>[44.826803174214966, 60.00166943528854]</t>
         </is>
       </c>
       <c r="V17" t="n">
@@ -1927,13 +1927,13 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>5.413193193193305</v>
+        <v>5.255175175175278</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.553153153153245</v>
+        <v>4.143503503503583</v>
       </c>
       <c r="Z17" t="n">
-        <v>6.273233233233364</v>
+        <v>6.366846846846974</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_5_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_5_square_10_.xlsx
@@ -581,39 +581,39 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.35000000000037</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.854072451124011e-14</v>
+        <v>8.79296635503124e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>1.854072451124011e-14</v>
+        <v>8.79296635503124e-14</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>57.31814316030142</v>
+        <v>60.50894985885397</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[46.451441004612235, 68.1848453159906]</t>
+          <t>[48.72379179123584, 72.2941079264721]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>7.549516567451064e-14</v>
+        <v>1.800781745942004e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>7.549516567451064e-14</v>
+        <v>1.800781745942004e-13</v>
       </c>
       <c r="P2" t="n">
-        <v>1.62897396852804</v>
+        <v>1.603816069400195</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.427710775505271, 1.8302371615508095]</t>
+          <t>[1.3899739268135018, 1.8176582119868883]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,11 +623,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>56.90127256546484</v>
+        <v>53.15582140037405</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[49.91643101051884, 63.886114120410845]</t>
+          <t>[45.44088107622731, 60.87076172452079]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>18.03703703703731</v>
+        <v>18.08240240240266</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.25705705705732</v>
+        <v>17.2560560560563</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.8170170170173</v>
+        <v>18.90874874874903</v>
       </c>
     </row>
     <row r="3">
@@ -667,53 +667,53 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.35000000000037</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.774758283725532e-15</v>
+        <v>7.30793203729263e-12</v>
       </c>
       <c r="I3" t="n">
-        <v>3.774758283725532e-15</v>
+        <v>7.30793203729263e-12</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>59.96114032867052</v>
+        <v>54.19133551161536</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[49.57473520772619, 70.34754544961486]</t>
+          <t>[41.77047521423616, 66.61219580899456]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.774758283725532e-15</v>
+        <v>2.535793797164843e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>3.774758283725532e-15</v>
+        <v>2.535793797164843e-11</v>
       </c>
       <c r="P3" t="n">
-        <v>1.566079220708425</v>
+        <v>1.46544762419704</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.364816027685655, 1.7673424137311953]</t>
+          <t>[1.2138686329185786, 1.7170266154755014]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.886579864025407e-15</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2.886579864025407e-15</v>
       </c>
       <c r="T3" t="n">
-        <v>52.97126274458187</v>
+        <v>53.10601339905465</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[46.00120493727292, 59.941320551890826]</t>
+          <t>[45.17576850775592, 61.03625829035337]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>18.28078078078106</v>
+        <v>18.61709709709737</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.50080080080106</v>
+        <v>17.64492492492518</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.06076076076105</v>
+        <v>19.58926926926956</v>
       </c>
     </row>
     <row r="4">
@@ -753,53 +753,53 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.35000000000037</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.65752966907462e-11</v>
+        <v>3.219646771412954e-15</v>
       </c>
       <c r="I4" t="n">
-        <v>1.65752966907462e-11</v>
+        <v>3.219646771412954e-15</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>54.70305551512543</v>
+        <v>63.62855928700662</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[40.69917229057732, 68.70693873967353]</t>
+          <t>[51.14929472699586, 76.10782384701739]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>5.374944933578263e-10</v>
+        <v>2.247091401841317e-13</v>
       </c>
       <c r="O4" t="n">
-        <v>5.374944933578263e-10</v>
+        <v>2.247091401841317e-13</v>
       </c>
       <c r="P4" t="n">
-        <v>1.364816027685656</v>
+        <v>1.301921279866041</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.0880791372793466, 1.641552918091965]</t>
+          <t>[1.0880791372793475, 1.5157634224527339]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>6.412648190234904e-13</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="S4" t="n">
-        <v>6.412648190234904e-13</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="T4" t="n">
-        <v>53.05871831138064</v>
+        <v>55.68479880746692</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[44.839199326934576, 61.27823729582671]</t>
+          <t>[48.33579815187486, 63.033799463058976]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>19.06076076076105</v>
+        <v>19.24900900900929</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.98828828828855</v>
+        <v>18.42266266266293</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.13323323323354</v>
+        <v>20.07535535535565</v>
       </c>
     </row>
     <row r="5">
@@ -839,53 +839,53 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.35000000000037</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.660116488721997e-12</v>
+        <v>1.887379141862766e-15</v>
       </c>
       <c r="I5" t="n">
-        <v>1.660116488721997e-12</v>
+        <v>1.887379141862766e-15</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>58.71592486273191</v>
+        <v>63.77122082176072</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[44.550547684628896, 72.88130204083492]</t>
+          <t>[52.169817711932424, 75.37262393158902]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.077953282191402e-10</v>
+        <v>1.953992523340276e-14</v>
       </c>
       <c r="O5" t="n">
-        <v>1.077953282191402e-10</v>
+        <v>1.953992523340276e-14</v>
       </c>
       <c r="P5" t="n">
-        <v>1.33965812855781</v>
+        <v>1.478026573760964</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.0880791372793466, 1.591237119836273]</t>
+          <t>[1.2767633807381946, 1.6792897667837332]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>5.551115123125783e-14</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>5.551115123125783e-14</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>54.51563341726261</v>
+        <v>52.8127693184047</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[46.316849287754714, 62.71441754677051]</t>
+          <t>[45.55682338126591, 60.06871525554349]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>19.15825825825855</v>
+        <v>18.56848848848876</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.18328328328355</v>
+        <v>17.79075075075101</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.13323323323354</v>
+        <v>19.34622622622651</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.35000000000037</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.416995631942086e-09</v>
+        <v>2.207634075546139e-11</v>
       </c>
       <c r="I6" t="n">
-        <v>1.416995631942086e-09</v>
+        <v>2.207634075546139e-11</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>50.42094827997696</v>
+        <v>59.56295624379531</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[35.36969091225029, 65.47220564770363]</t>
+          <t>[42.78087303489326, 76.34503945269736]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>2.418632849554569e-08</v>
+        <v>6.140936426035637e-09</v>
       </c>
       <c r="O6" t="n">
-        <v>2.418632849554569e-08</v>
+        <v>6.140936426035637e-09</v>
       </c>
       <c r="P6" t="n">
-        <v>1.327079178993886</v>
+        <v>1.188710733790733</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.0000264903318863, 1.6541318676558854]</t>
+          <t>[0.8993948938205012, 1.478026573760964]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.935600568714335e-10</v>
+        <v>1.374700353551361e-10</v>
       </c>
       <c r="S6" t="n">
-        <v>1.935600568714335e-10</v>
+        <v>1.374700353551361e-10</v>
       </c>
       <c r="T6" t="n">
-        <v>59.08460390445401</v>
+        <v>54.19892567365877</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[50.218288537111874, 67.95091927179615]</t>
+          <t>[45.178945021803756, 63.218906325513785]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="X6" t="n">
-        <v>19.2070070070073</v>
+        <v>19.68648648648677</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.93953953953982</v>
+        <v>18.56848848848876</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.47447447447478</v>
+        <v>20.80448448448479</v>
       </c>
     </row>
     <row r="7">
@@ -1011,53 +1011,53 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.35000000000037</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>4.071187831300449e-13</v>
+        <v>9.279244039817058e-13</v>
       </c>
       <c r="I7" t="n">
-        <v>4.071187831300449e-13</v>
+        <v>9.279244039817058e-13</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>55.95525406368167</v>
+        <v>63.25334296061196</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[42.153766167016656, 69.75674196034669]</t>
+          <t>[47.011854758948104, 79.49483116227582]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.98033811571463e-10</v>
+        <v>5.819149606622886e-10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.98033811571463e-10</v>
+        <v>5.819149606622886e-10</v>
       </c>
       <c r="P7" t="n">
-        <v>1.075500187715424</v>
+        <v>1.125815985971117</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.8239211964369622, 1.3270791789938867]</t>
+          <t>[0.8616580451287321, 1.3899739268135027]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>4.536304665236912e-11</v>
+        <v>4.948130793991368e-11</v>
       </c>
       <c r="S7" t="n">
-        <v>4.536304665236912e-11</v>
+        <v>4.948130793991368e-11</v>
       </c>
       <c r="T7" t="n">
-        <v>52.33873952816967</v>
+        <v>56.90407523804971</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[44.88599439667508, 59.791484659664256]</t>
+          <t>[48.26124539496394, 65.54690508113546]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>20.18198198198229</v>
+        <v>19.92952952952982</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.2070070070073</v>
+        <v>18.90874874874902</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.15695695695728</v>
+        <v>20.95031031031062</v>
       </c>
     </row>
     <row r="8">
@@ -1097,53 +1097,53 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.35000000000037</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.490230244234226e-13</v>
+        <v>9.71445146547012e-14</v>
       </c>
       <c r="I8" t="n">
-        <v>2.490230244234226e-13</v>
+        <v>9.71445146547012e-14</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>62.91529211704883</v>
+        <v>55.73200994917266</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[47.55658398943875, 78.27400024465891]</t>
+          <t>[42.75424188603528, 68.70977801231004]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.492854728724069e-10</v>
+        <v>3.988320784742427e-11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.492854728724069e-10</v>
+        <v>3.988320784742427e-11</v>
       </c>
       <c r="P8" t="n">
-        <v>1.113237036407194</v>
+        <v>1.075500187715424</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.8490790955648082, 1.3773949772495788]</t>
+          <t>[0.823921196436963, 1.3270791789938858]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>6.790967788106173e-11</v>
+        <v>4.536304665236912e-11</v>
       </c>
       <c r="S8" t="n">
-        <v>6.790967788106173e-11</v>
+        <v>4.536304665236912e-11</v>
       </c>
       <c r="T8" t="n">
-        <v>52.60186634186735</v>
+        <v>50.15799709435645</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[44.34469060920281, 60.85904207453189]</t>
+          <t>[43.05537447092163, 57.260619717791265]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>20.03573573573604</v>
+        <v>20.12396396396426</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.0120120120123</v>
+        <v>19.15179179179208</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.05945945945978</v>
+        <v>21.09613613613644</v>
       </c>
     </row>
     <row r="9">
@@ -1183,53 +1183,53 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.35000000000037</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.853273173286652e-14</v>
+        <v>1.443289932012704e-15</v>
       </c>
       <c r="I9" t="n">
-        <v>2.853273173286652e-14</v>
+        <v>1.443289932012704e-15</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>64.74499434225147</v>
+        <v>62.9478326685523</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[49.90610731901762, 79.58388136548533]</t>
+          <t>[49.97512437093921, 75.92054096616539]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2.531330700605849e-11</v>
+        <v>1.062039345356425e-12</v>
       </c>
       <c r="O9" t="n">
-        <v>2.531330700605849e-11</v>
+        <v>1.062039345356425e-12</v>
       </c>
       <c r="P9" t="n">
-        <v>1.012605439895808</v>
+        <v>1.100658086843271</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.7610264486173461, 1.2641844311742707]</t>
+          <t>[0.8742369946926551, 1.3270791789938876]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.411515431788303e-10</v>
+        <v>1.004307748075917e-12</v>
       </c>
       <c r="S9" t="n">
-        <v>2.411515431788303e-10</v>
+        <v>1.004307748075917e-12</v>
       </c>
       <c r="T9" t="n">
-        <v>57.46240537551451</v>
+        <v>58.29391100072438</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[49.52055951012285, 65.40425124090616]</t>
+          <t>[51.21032053585451, 65.37750146559425]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>20.42572572572604</v>
+        <v>20.02674674674704</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.45075075075104</v>
+        <v>19.15179179179207</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.40070070070103</v>
+        <v>20.90170170170201</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.35000000000037</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.001750349338693e-09</v>
+        <v>3.885025634531303e-11</v>
       </c>
       <c r="I10" t="n">
-        <v>1.001750349338693e-09</v>
+        <v>3.885025634531303e-11</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>52.02124014658446</v>
+        <v>56.88957671241349</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[34.84608560974277, 69.19639468342615]</t>
+          <t>[40.42411193238115, 73.35504149244582]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2.214643235465275e-07</v>
+        <v>1.172546570948896e-08</v>
       </c>
       <c r="O10" t="n">
-        <v>2.214643235465275e-07</v>
+        <v>1.172546570948896e-08</v>
       </c>
       <c r="P10" t="n">
-        <v>0.8993948938205003</v>
+        <v>0.9874475407679633</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.5597632555945768, 1.2390265320464238]</t>
+          <t>[0.6855527512338089, 1.2893423303021176]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>3.006464076804605e-06</v>
+        <v>4.173414214214688e-08</v>
       </c>
       <c r="S10" t="n">
-        <v>3.006464076804605e-06</v>
+        <v>4.173414214214688e-08</v>
       </c>
       <c r="T10" t="n">
-        <v>55.03568892812529</v>
+        <v>54.66983851825535</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[46.05641908400794, 64.01495877224264]</t>
+          <t>[45.90819252996376, 63.43148450654693]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W10" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X10" t="n">
-        <v>20.86446446446478</v>
+        <v>20.46422422422452</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.54824824824854</v>
+        <v>19.2976176176179</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.18068068068102</v>
+        <v>21.63083083083115</v>
       </c>
     </row>
     <row r="11">
@@ -1355,53 +1355,53 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.24000000000051</v>
+        <v>25.25000000000051</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.219646771412954e-15</v>
+        <v>2.236355545193192e-11</v>
       </c>
       <c r="I11" t="n">
-        <v>3.219646771412954e-15</v>
+        <v>2.236355545193192e-11</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>64.97666637078201</v>
+        <v>60.06726517925881</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[50.897853198193005, 79.05547954337102]</t>
+          <t>[42.91654725975317, 77.21798309876445]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>4.871658632055187e-12</v>
+        <v>8.473773238648619e-09</v>
       </c>
       <c r="O11" t="n">
-        <v>4.871658632055187e-12</v>
+        <v>8.473773238648619e-09</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5975001042863477</v>
+        <v>0.6226580034141929</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.37107901213573236, 0.823921196436963]</t>
+          <t>[0.3333421634439615, 0.9119738433844242]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>3.201520661022528e-06</v>
+        <v>8.106255815198971e-05</v>
       </c>
       <c r="S11" t="n">
-        <v>3.201520661022528e-06</v>
+        <v>8.106255815198971e-05</v>
       </c>
       <c r="T11" t="n">
-        <v>55.24937121167895</v>
+        <v>58.36148210701219</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[47.913447251052474, 62.58529517230542]</t>
+          <t>[49.45137773296335, 67.27158648106102]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1411,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>22.83979979980025</v>
+        <v>22.74774774774821</v>
       </c>
       <c r="Y11" t="n">
-        <v>21.93025025025069</v>
+        <v>21.58508508508552</v>
       </c>
       <c r="Z11" t="n">
-        <v>23.74934934934982</v>
+        <v>23.91041041041089</v>
       </c>
     </row>
     <row r="12">
@@ -1441,53 +1441,53 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.24000000000051</v>
+        <v>25.25000000000051</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1.326716514427062e-13</v>
+        <v>2.652655872736887e-12</v>
       </c>
       <c r="I12" t="n">
-        <v>1.326716514427062e-13</v>
+        <v>2.652655872736887e-12</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>62.5652931275071</v>
+        <v>55.6376390843992</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[48.759993812524044, 76.37059244249015]</t>
+          <t>[42.100505755047834, 69.17477241375057]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>8.36841707041458e-12</v>
+        <v>1.362725488007754e-10</v>
       </c>
       <c r="O12" t="n">
-        <v>8.36841707041458e-12</v>
+        <v>1.362725488007754e-10</v>
       </c>
       <c r="P12" t="n">
-        <v>0.2830263651882694</v>
+        <v>0.3962369112635766</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.05660527303765406, 0.5094474573388847]</t>
+          <t>[0.13207897042119132, 0.6603948521059619]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.01544312383558455</v>
+        <v>0.004142907235937576</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01544312383558455</v>
+        <v>0.004142907235937576</v>
       </c>
       <c r="T12" t="n">
-        <v>56.2367699181463</v>
+        <v>51.30097339896966</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[48.41280224879546, 64.06073758749714]</t>
+          <t>[43.65159231881019, 58.95035447912913]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>24.10306306306355</v>
+        <v>23.65765765765814</v>
       </c>
       <c r="Y12" t="n">
-        <v>23.19351351351398</v>
+        <v>22.59609609609655</v>
       </c>
       <c r="Z12" t="n">
-        <v>25.01261261261311</v>
+        <v>24.71921921921972</v>
       </c>
     </row>
     <row r="13">
@@ -1527,53 +1527,53 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.24000000000051</v>
+        <v>25.25000000000051</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1.748623468245114e-11</v>
+        <v>1.727151754948864e-11</v>
       </c>
       <c r="I13" t="n">
-        <v>1.748623468245114e-11</v>
+        <v>1.727151754948864e-11</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>58.5879769389737</v>
+        <v>59.52028375105056</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[44.95123067250698, 72.22472320544041]</t>
+          <t>[45.362630310986674, 73.67793719111444]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.938183112950355e-11</v>
+        <v>7.267320079051842e-11</v>
       </c>
       <c r="O13" t="n">
-        <v>3.938183112950355e-11</v>
+        <v>7.267320079051842e-11</v>
       </c>
       <c r="P13" t="n">
-        <v>0.1195000208572692</v>
+        <v>0.09434212172942313</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.1320789704211922, 0.3710790121357306]</t>
+          <t>[-0.16981581911296129, 0.35850006257180755]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.3438308888548971</v>
+        <v>0.4756613532939262</v>
       </c>
       <c r="S13" t="n">
-        <v>0.3438308888548971</v>
+        <v>0.4756613532939262</v>
       </c>
       <c r="T13" t="n">
-        <v>56.10721543082403</v>
+        <v>57.21374891292633</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[47.549709895512756, 64.66472096613532]</t>
+          <t>[48.528510951045604, 65.89898687480705]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1583,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>24.75995995996046</v>
+        <v>24.87087087087137</v>
       </c>
       <c r="Y13" t="n">
-        <v>23.74934934934983</v>
+        <v>23.80930930930979</v>
       </c>
       <c r="Z13" t="n">
-        <v>25.77057057057109</v>
+        <v>25.93243243243295</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>25.24000000000051</v>
+        <v>25.25000000000051</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>8.464895451254506e-12</v>
+        <v>1.663225113190947e-12</v>
       </c>
       <c r="I14" t="n">
-        <v>8.464895451254506e-12</v>
+        <v>1.663225113190947e-12</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>57.51833887067544</v>
+        <v>60.00487763236699</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[43.5900910069538, 71.44658673439707]</t>
+          <t>[45.944571309534155, 74.06518395519983]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>1.19500853656973e-10</v>
+        <v>4.762079619524684e-11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.19500853656973e-10</v>
+        <v>4.762079619524684e-11</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.1509473947670772</v>
+        <v>-0.2515789912784623</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.4151053356094625, 0.11321054607530812]</t>
+          <t>[-0.5031579825569237, -8.881784197001252e-16]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.2558456697330391</v>
+        <v>0.05000000044112674</v>
       </c>
       <c r="S14" t="n">
-        <v>0.2558456697330391</v>
+        <v>0.05000000044112674</v>
       </c>
       <c r="T14" t="n">
-        <v>52.27912025995274</v>
+        <v>53.61199781638326</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[44.01960546527249, 60.53863505463299]</t>
+          <t>[45.405398472218586, 61.81859716054793]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0.6063663663663803</v>
+        <v>1.011011011011036</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0.4547747747747832</v>
+        <v>6.217248937900877e-15</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.667507507507544</v>
+        <v>2.022022022022065</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>25.24000000000051</v>
+        <v>25.25000000000051</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1.813765804214995e-10</v>
+        <v>2.053635039800383e-11</v>
       </c>
       <c r="I15" t="n">
-        <v>1.813765804214995e-10</v>
+        <v>2.053635039800383e-11</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>54.05679022773585</v>
+        <v>52.40040834774712</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[37.2179898144723, 70.89559064099939]</t>
+          <t>[37.236800968044264, 67.56401572744998]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>6.338710689668403e-08</v>
+        <v>1.167842933469387e-08</v>
       </c>
       <c r="O15" t="n">
-        <v>6.338710689668403e-08</v>
+        <v>1.167842933469387e-08</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.5786316799404627</v>
+        <v>-0.5283158816847697</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.8931054190385401, -0.2641579408423853]</t>
+          <t>[-0.8302106712189241, -0.22642109215061534]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.0005745715763323389</v>
+        <v>0.0009870149569923825</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0005745715763323389</v>
+        <v>0.0009870149569923825</v>
       </c>
       <c r="T15" t="n">
-        <v>54.22427411018027</v>
+        <v>49.96294175896763</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[45.442560971786996, 63.005987248573554]</t>
+          <t>[42.07784333839794, 57.84804017953732]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W15" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X15" t="n">
-        <v>2.324404404404454</v>
+        <v>2.123123123123165</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.061141141141166</v>
+        <v>0.9099099099099266</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.587667667667743</v>
+        <v>3.336336336336402</v>
       </c>
     </row>
     <row r="16">
@@ -1785,53 +1785,53 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>25.24000000000051</v>
+        <v>25.25000000000051</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>3.375077994860476e-14</v>
+        <v>3.574918139293004e-14</v>
       </c>
       <c r="I16" t="n">
-        <v>3.375077994860476e-14</v>
+        <v>3.574918139293004e-14</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>55.50674563542155</v>
+        <v>58.25400231815692</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[41.86197810513797, 69.15151316570513]</t>
+          <t>[44.31605532649576, 72.19194930981809]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>1.806277349913898e-10</v>
+        <v>8.561462649936402e-11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.806277349913898e-10</v>
+        <v>8.561462649936402e-11</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.9182633181663862</v>
+        <v>-0.8176317216550011</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-1.1572633598809254, -0.6792632764518469]</t>
+          <t>[-1.0692107129334634, -0.5660527303765388]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>8.305416354659201e-10</v>
+        <v>4.818426413422117e-08</v>
       </c>
       <c r="S16" t="n">
-        <v>8.305416354659201e-10</v>
+        <v>4.818426413422117e-08</v>
       </c>
       <c r="T16" t="n">
-        <v>53.96414714592181</v>
+        <v>49.27891618634603</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[47.000618676311845, 60.92767561553178]</t>
+          <t>[41.98667351612994, 56.57115885656212]</t>
         </is>
       </c>
       <c r="V16" t="n">
@@ -1841,13 +1841,13 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>3.688728728728805</v>
+        <v>3.285785785785851</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.728648648648703</v>
+        <v>2.274774774774818</v>
       </c>
       <c r="Z16" t="n">
-        <v>4.648808808808906</v>
+        <v>4.296796796796884</v>
       </c>
     </row>
     <row r="17">
@@ -1871,53 +1871,53 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>25.24000000000051</v>
+        <v>25.25000000000051</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1.303956942422246e-12</v>
+        <v>6.356026815979021e-12</v>
       </c>
       <c r="I17" t="n">
-        <v>1.303956942422246e-12</v>
+        <v>6.356026815979021e-12</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>53.6165551237271</v>
+        <v>51.11757778710567</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[40.32880235082099, 66.90430789663321]</t>
+          <t>[37.75626468193157, 64.47889089227976]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.254052500205717e-10</v>
+        <v>9.278930956924114e-10</v>
       </c>
       <c r="O17" t="n">
-        <v>2.254052500205717e-10</v>
+        <v>9.278930956924114e-10</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.308210754648002</v>
+        <v>-1.320789704211925</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-1.58494764505431, -1.0314738642416934]</t>
+          <t>[-1.6101055441821561, -1.0314738642416934]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.363442774822033e-12</v>
+        <v>6.739719893289475e-12</v>
       </c>
       <c r="S17" t="n">
-        <v>2.363442774822033e-12</v>
+        <v>6.739719893289475e-12</v>
       </c>
       <c r="T17" t="n">
-        <v>52.41423630475175</v>
+        <v>53.72600924136916</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[44.826803174214966, 60.00166943528854]</t>
+          <t>[46.108034605686136, 61.343983877052175]</t>
         </is>
       </c>
       <c r="V17" t="n">
@@ -1927,13 +1927,13 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>5.255175175175278</v>
+        <v>5.307807807807915</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.143503503503583</v>
+        <v>4.145145145145229</v>
       </c>
       <c r="Z17" t="n">
-        <v>6.366846846846974</v>
+        <v>6.470470470470602</v>
       </c>
     </row>
   </sheetData>
